--- a/Assets/InProject/Excels/ExperimentIntroductionConfig.xlsx
+++ b/Assets/InProject/Excels/ExperimentIntroductionConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>string</t>
   </si>
@@ -133,6 +133,18 @@
   <si>
     <t>土的含水率指土在105-110℃下烘于恒量时所失去的水的质量和干土质量的百分比值。
 土在天然状态下的含水率称为土的天然含水率。所以，试验的目的:测定土的含水率。一般采用烘干法来进行。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>previewImageName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +659,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,7 +686,9 @@
       <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -689,7 +703,9 @@
       <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -704,7 +720,9 @@
       <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -719,7 +737,9 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -734,7 +754,9 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -749,7 +771,9 @@
       <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -764,7 +788,9 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
